--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE261AB5-A0C1-4E2B-A0E2-E86EE4968504}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8CBE4-8D3C-4FAB-96E5-28F6DB916007}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="-21720" yWindow="2580" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -92,10 +93,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,38 +238,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE8EB0B-28F3-4528-ADAC-BBBB33A55E0C}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,52 +599,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="13"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>-3.6320000000000001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>-5.1749999999999998</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>5.6130000000000004</v>
       </c>
       <c r="N2">
@@ -660,35 +670,35 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="G3" s="12"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="N3">
@@ -714,35 +724,35 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>-1.1519999999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>-3.456</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>4.6079999999999997</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3">
+      <c r="G4" s="13"/>
+      <c r="H4" s="1">
         <v>-1.885</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>-4.9480000000000004</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>2.6230000000000002</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>4.1280000000000001</v>
       </c>
       <c r="N4">
@@ -768,35 +778,35 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>0.82499999999999996</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3">
+      <c r="G5" s="13"/>
+      <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>0.71699999999999997</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>-0.93600000000000005</v>
       </c>
       <c r="N5">
@@ -822,35 +832,35 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>21.35</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>-21.35</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3">
+      <c r="G6" s="13"/>
+      <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>-24.007000000000001</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="N6">
@@ -876,35 +886,35 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>31.077000000000002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>-9.7270000000000003</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>-21.35</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3">
+      <c r="G7" s="13"/>
+      <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>-6.5250000000000004</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>-24.007000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="N7">
@@ -930,35 +940,35 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>-4.9400000000000004</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6.26</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1.304</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>-2.625</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3">
+      <c r="G8" s="13"/>
+      <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>8.73</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>2.625</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <v>-5.2050000000000001</v>
       </c>
       <c r="N8">
@@ -984,35 +994,35 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>-0.20799999999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>-0.625</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3">
+      <c r="G9" s="13"/>
+      <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>-1.8480000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>2.4700000000000002</v>
       </c>
       <c r="N9">
@@ -1038,35 +1048,35 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>2.9169999999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>-1.458</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>-1.667</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3">
+      <c r="G10" s="13"/>
+      <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>-0.23</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>-1.4910000000000001</v>
       </c>
       <c r="N10">
@@ -1092,35 +1102,35 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>0.625</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1.875</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3">
+      <c r="G11" s="12"/>
+      <c r="H11" s="1">
         <v>0.625</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>1.875</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>-2.5</v>
       </c>
       <c r="N11">
@@ -1146,35 +1156,35 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>0.625</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>1.875</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3">
+      <c r="G12" s="12"/>
+      <c r="H12" s="1">
         <v>0.625</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>1.875</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <v>-2.5</v>
       </c>
       <c r="N12">
@@ -1200,35 +1210,35 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>-2.1880000000000002</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>5.1790000000000003</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3">
+      <c r="G13" s="13"/>
+      <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>7.5460000000000003</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>5.2240000000000002</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="2">
         <v>-5.2210000000000001</v>
       </c>
       <c r="N13">
@@ -1254,35 +1264,35 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1.238</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>-1.65</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3">
+      <c r="G14" s="12"/>
+      <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>1.238</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>-1.65</v>
       </c>
       <c r="N14">
@@ -1308,35 +1318,35 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>2.9169999999999998</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>-1.458</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7">
+      <c r="G15" s="10"/>
+      <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>1.595</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>4.2850000000000001</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="4">
         <v>-8.4269999999999996</v>
       </c>
       <c r="N15">
@@ -1363,6 +1373,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F3:G3"/>
@@ -1374,11 +1389,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1386,6 +1396,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66259D1-0AA3-4CC2-A6DC-36E9C2388D5A}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>3.1066199999999999</v>
+      </c>
+      <c r="C2" s="17">
+        <v>-3.7760600000000002</v>
+      </c>
+      <c r="D2" s="17">
+        <v>-5.13795</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5.8073899999999998</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="1">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-3.6320000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-5.1749999999999998</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.6130000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-3.456</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="1">
+        <v>-1.885</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-4.9480000000000004</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-21.35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="1">
+        <v>22.829000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-24.007000000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31.077000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-9.7270000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-21.35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="1">
+        <v>32.597000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-6.5250000000000004</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-24.007000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>-4.23421</v>
+      </c>
+      <c r="C8" s="17">
+        <v>7.22159</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.9078999999999999</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-4.8952799999999996</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="1">
+        <v>-6.0149999999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-5.2050000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="1">
+        <v>-0.73099999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1.8480000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.458</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1.667</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-1.4910000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-2.1880000000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.1790000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-3.5169999999999999</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="1">
+        <v>-7.0590000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.2240000000000002</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-5.2210000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.65</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2.8744100000000001</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.58157999999999999</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="E15" s="18">
+        <v>-5.5479900000000004</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.595</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-8.4269999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC70D26-713B-414C-A43C-5E11123375CA}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -1396,10 +1919,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -1426,10 +1949,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="16"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -1456,10 +1979,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="15"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -1486,10 +2009,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="15"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -1516,10 +2039,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="15"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -1546,10 +2069,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="15"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -1576,10 +2099,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="15"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -1606,10 +2129,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="15"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -1636,10 +2159,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="15"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -1666,10 +2189,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="16"/>
       <c r="C10">
         <v>0.625</v>
       </c>
@@ -1696,10 +2219,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="16"/>
       <c r="C11">
         <v>0.625</v>
       </c>
@@ -1726,10 +2249,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="15"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -1756,10 +2279,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="16"/>
       <c r="C13">
         <v>0.41299999999999998</v>
       </c>
@@ -1786,10 +2309,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="15"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -1817,12 +2340,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
@@ -1831,6 +2348,12 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lmpcodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ln.lin\Documents\GitHub\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8CBE4-8D3C-4FAB-96E5-28F6DB916007}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A05CAA-15DF-4E9D-A850-2F8C1EA89FF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2580" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="-25350" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -249,6 +249,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,8 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,20 +600,20 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -631,10 +631,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13"/>
+      <c r="F2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -685,10 +685,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -739,10 +739,10 @@
       <c r="E4" s="1">
         <v>4.6079999999999997</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -793,10 +793,10 @@
       <c r="E5" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -847,10 +847,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -901,10 +901,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -955,10 +955,10 @@
       <c r="E8" s="1">
         <v>-2.625</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1009,10 +1009,10 @@
       <c r="E9" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1063,10 +1063,10 @@
       <c r="E10" s="1">
         <v>-1.667</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1117,10 +1117,10 @@
       <c r="E11" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1171,10 +1171,10 @@
       <c r="E12" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1225,10 +1225,10 @@
       <c r="E13" s="1">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1279,10 +1279,10 @@
       <c r="E14" s="1">
         <v>-1.65</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1333,10 +1333,10 @@
       <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1399,49 +1399,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66259D1-0AA3-4CC2-A6DC-36E9C2388D5A}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:K15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="10">
         <v>3.1066199999999999</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="10">
         <v>-3.7760600000000002</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="10">
         <v>-5.13795</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="10">
         <v>5.8073899999999998</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13"/>
+      <c r="F2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -1471,10 +1471,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -1504,10 +1504,10 @@
       <c r="E4" s="1">
         <v>4.6079999999999997</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -1537,10 +1537,10 @@
       <c r="E5" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -1570,10 +1570,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -1603,10 +1603,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -1624,22 +1624,22 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="10">
         <v>-4.23421</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <v>7.22159</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="10">
         <v>1.9078999999999999</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>-4.8952799999999996</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1657,22 +1657,22 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>-0.20799999999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-0.625</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="B9" s="10">
+        <v>-0.15898999999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.47698000000000002</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.63595999999999997</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1702,10 +1702,10 @@
       <c r="E10" s="1">
         <v>-1.667</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1735,10 +1735,10 @@
       <c r="E11" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1768,10 +1768,10 @@
       <c r="E12" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1801,10 +1801,10 @@
       <c r="E13" s="1">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1834,10 +1834,10 @@
       <c r="E14" s="1">
         <v>-1.65</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1855,22 +1855,22 @@
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>2.8744100000000001</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="11">
         <v>0.58157999999999999</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="11">
         <v>2.0920000000000001</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1896,12 +1896,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1913,16 +1913,16 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -1949,10 +1949,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -1979,10 +1979,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -2009,10 +2009,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -2039,10 +2039,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -2069,10 +2069,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -2099,10 +2099,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -2129,10 +2129,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -2159,10 +2159,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="17"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -2189,10 +2189,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10">
         <v>0.625</v>
       </c>
@@ -2219,10 +2219,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11">
         <v>0.625</v>
       </c>
@@ -2249,10 +2249,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -2279,10 +2279,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13">
         <v>0.41299999999999998</v>
       </c>
@@ -2309,10 +2309,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -2357,4 +2357,461 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69C754-2CD7-4F1F-82EC-71DD6966FF0C}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="10">
+        <v>3.1066199999999999</v>
+      </c>
+      <c r="D1" s="10">
+        <v>-3.7760600000000002</v>
+      </c>
+      <c r="E1" s="10">
+        <v>-5.13795</v>
+      </c>
+      <c r="F1" s="10">
+        <v>5.8073899999999998</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-3.6320000000000001</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-5.1749999999999998</v>
+      </c>
+      <c r="J1" s="2">
+        <v>5.6130000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="1">
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-3.456</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.885</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-4.9480000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-21.35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22.829000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-24.007000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="1">
+        <v>31.077000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-9.7270000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-21.35</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32.597000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-6.5250000000000004</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-24.007000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10">
+        <v>-4.23421</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7.22159</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.9078999999999999</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-4.8952799999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-6.0149999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-5.2050000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="10">
+        <v>-0.15898999999999999</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-0.47698000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.63595999999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.73099999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1.8480000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="1">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.458</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.667</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-1.4910000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="1">
+        <v>-2.1880000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.1790000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-3.5169999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-7.0590000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.2240000000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-5.2210000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.65</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11">
+        <v>2.8744100000000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.58157999999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-5.5479900000000004</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.595</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-8.4269999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ln.lin\Documents\GitHub\lmpcodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A05CAA-15DF-4E9D-A850-2F8C1EA89FF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B58C4C-E636-4EE9-83F3-3C4C890F97DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25350" yWindow="1605" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="opls_Gromacs" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -88,11 +91,26 @@
   <si>
     <t>LOPLS</t>
   </si>
+  <si>
+    <t>change opls parameters from orignal gromcas ff files</t>
+  </si>
+  <si>
+    <t>kJ/mol</t>
+  </si>
+  <si>
+    <t>kcal/mol</t>
+  </si>
+  <si>
+    <t>unit: kJ/mol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -251,6 +269,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,7 +610,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,20 +621,20 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -631,10 +652,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15"/>
+      <c r="F2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -685,10 +706,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -739,10 +760,10 @@
       <c r="E4" s="1">
         <v>4.6079999999999997</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -793,10 +814,10 @@
       <c r="E5" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -847,10 +868,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -901,10 +922,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -955,10 +976,10 @@
       <c r="E8" s="1">
         <v>-2.625</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1009,10 +1030,10 @@
       <c r="E9" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1063,10 +1084,10 @@
       <c r="E10" s="1">
         <v>-1.667</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1117,10 +1138,10 @@
       <c r="E11" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1171,10 +1192,10 @@
       <c r="E12" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1225,10 +1246,10 @@
       <c r="E13" s="1">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1279,10 +1300,10 @@
       <c r="E14" s="1">
         <v>-1.65</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1333,10 +1354,10 @@
       <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1397,30 +1418,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66259D1-0AA3-4CC2-A6DC-36E9C2388D5A}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1438,10 +1459,10 @@
       <c r="E2" s="10">
         <v>5.8073899999999998</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15"/>
+      <c r="F2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -1471,10 +1492,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -1493,21 +1514,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>-1.1519999999999999</v>
+        <v>-1.1568799999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>-3.456</v>
+        <v>-3.4706299999999999</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>4.6079999999999997</v>
-      </c>
-      <c r="F4" s="15" t="s">
+        <v>4.6275000000000004</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -1526,21 +1547,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.27615000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.82843999999999995</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="F5" s="15" t="s">
+        <v>-1.1045799999999999</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -1559,21 +1580,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>21.35</v>
+        <v>21.43881</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>-21.35</v>
+        <v>-21.43881</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -1592,21 +1613,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>31.077000000000002</v>
+        <v>31.20637</v>
       </c>
       <c r="C7" s="1">
-        <v>-9.7270000000000003</v>
+        <v>-9.7675400000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-21.35</v>
+        <v>-21.43881</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -1636,10 +1657,10 @@
       <c r="E8" s="10">
         <v>-4.8952799999999996</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1669,10 +1690,10 @@
       <c r="E9" s="10">
         <v>0.63595999999999997</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1691,21 +1712,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2.9169999999999998</v>
+        <v>2.9287999999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>-1.458</v>
+        <v>-1.4643999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>0.20799999999999999</v>
+        <v>0.2092</v>
       </c>
       <c r="E10" s="1">
-        <v>-1.667</v>
-      </c>
-      <c r="F10" s="15" t="s">
+        <v>-1.6736</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1724,21 +1745,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.625</v>
+        <v>0.62760000000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>1.875</v>
+        <v>1.8828</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="F11" s="14" t="s">
+        <v>-2.5104000000000002</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1757,21 +1778,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.625</v>
+        <v>0.62760000000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>1.875</v>
+        <v>1.8828</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>-2.5104000000000002</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1790,21 +1811,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>-2.1880000000000002</v>
+        <v>-2.1966000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>5.1790000000000003</v>
+        <v>5.2007099999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>0.52500000000000002</v>
+        <v>0.52719000000000005</v>
       </c>
       <c r="E13" s="1">
-        <v>-3.5169999999999999</v>
-      </c>
-      <c r="F13" s="15" t="s">
+        <v>-3.5312999999999999</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1823,21 +1844,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.41299999999999998</v>
+        <v>0.41421000000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1.238</v>
+        <v>1.24265</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>-1.65</v>
-      </c>
-      <c r="F14" s="14" t="s">
+        <v>-1.65686</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1867,10 +1888,10 @@
       <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1882,6 +1903,16 @@
       </c>
       <c r="K15" s="4">
         <v>-8.4269999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1913,16 +1944,16 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -1949,10 +1980,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="21"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -1979,10 +2010,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -2009,10 +2040,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -2039,10 +2070,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -2069,10 +2100,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -2099,10 +2130,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -2129,10 +2160,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -2159,10 +2190,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -2189,10 +2220,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10">
         <v>0.625</v>
       </c>
@@ -2219,10 +2250,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11">
         <v>0.625</v>
       </c>
@@ -2249,10 +2280,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="20"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -2279,10 +2310,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13">
         <v>0.41299999999999998</v>
       </c>
@@ -2309,10 +2340,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -2363,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69C754-2CD7-4F1F-82EC-71DD6966FF0C}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,10 +2407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="10">
         <v>3.1066199999999999</v>
       </c>
@@ -2406,10 +2437,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -2436,10 +2467,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1">
         <v>-1.1519999999999999</v>
       </c>
@@ -2466,10 +2497,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -2496,10 +2527,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1">
         <v>21.35</v>
       </c>
@@ -2526,10 +2557,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="1">
         <v>31.077000000000002</v>
       </c>
@@ -2556,10 +2587,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10">
         <v>-4.23421</v>
       </c>
@@ -2586,10 +2617,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10">
         <v>-0.15898999999999999</v>
       </c>
@@ -2616,10 +2647,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1">
         <v>2.9169999999999998</v>
       </c>
@@ -2646,10 +2677,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="1">
         <v>0.625</v>
       </c>
@@ -2676,10 +2707,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1">
         <v>0.625</v>
       </c>
@@ -2706,10 +2737,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1">
         <v>-2.1880000000000002</v>
       </c>
@@ -2736,10 +2767,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -2766,10 +2797,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="11">
         <v>2.8744100000000001</v>
       </c>
@@ -2814,4 +2845,822 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E244BB6-4524-4BF9-B818-CEFBCE7011DD}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3.1066199999999999</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-3.7760600000000002</v>
+      </c>
+      <c r="D2" s="10">
+        <v>-5.13795</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5.8073899999999998</v>
+      </c>
+      <c r="G2" s="12">
+        <f>B2*0.24</f>
+        <v>0.74558879999999994</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:J2" si="0">C2*0.24</f>
+        <v>-0.90625440000000002</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.2331079999999999</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3937735999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G15" si="1">B3*0.24</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H15" si="2">C3*0.24</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I15" si="3">D3*0.24</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J15" si="4">E3*0.24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.1568799999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-3.4706299999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6275000000000004</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.27765119999999999</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.83295119999999989</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="4"/>
+        <v>1.1106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.27615000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.82843999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1.1045799999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>6.6276000000000002E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.19882559999999999</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.26509919999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21.43881</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-21.43881</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>5.1453144000000002</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="3"/>
+        <v>-5.1453144000000002</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31.20637</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-9.7675400000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-21.43881</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4895287999999995</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.3442096000000001</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="3"/>
+        <v>-5.1453144000000002</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-4.23421</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7.22159</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.9078999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-4.8952799999999996</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.0162104000000001</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7331816</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45789599999999997</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.1748671999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-0.15898999999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.47698000000000002</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.63595999999999997</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>-3.81576E-2</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.1144752</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="4"/>
+        <v>0.1526304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.9287999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.4643999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2092</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1.6736</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.70291199999999998</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.35145599999999999</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="3"/>
+        <v>5.0207999999999996E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.40166399999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8828</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-2.5104000000000002</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.15062400000000001</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="2"/>
+        <v>0.451872</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.60249600000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8828</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-2.5104000000000002</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.15062400000000001</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="2"/>
+        <v>0.451872</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.60249600000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-2.1966000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.2007099999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.52719000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-3.5312999999999999</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.52718399999999999</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2481704</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.12652560000000002</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.84751199999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.41421000000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.24265</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.65686</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>9.9410399999999996E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="2"/>
+        <v>0.298236</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.39764640000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2.8744100000000001</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.58157999999999999</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-5.5479900000000004</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.68985839999999998</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.13957919999999999</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.50207999999999997</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.3315176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F835046E-12F0-4FC2-BE5B-9E7C4ACE63AC}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12">
+        <v>0.74558879999999994</v>
+      </c>
+      <c r="C1" s="12">
+        <v>-0.90625440000000002</v>
+      </c>
+      <c r="D1" s="12">
+        <v>-1.2331079999999999</v>
+      </c>
+      <c r="E1" s="12">
+        <v>1.3937735999999998</v>
+      </c>
+      <c r="F1" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12">
+        <v>-0.27765119999999999</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-0.83295119999999989</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1.1106</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
+        <v>6.6276000000000002E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.19882559999999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-0.26509919999999998</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5.1453144000000002</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>-5.1453144000000002</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>7.4895287999999995</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-2.3442096000000001</v>
+      </c>
+      <c r="D6" s="12">
+        <v>-5.1453144000000002</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>-1.0162104000000001</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.7331816</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.45789599999999997</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-1.1748671999999998</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>-3.81576E-2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-0.1144752</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.1526304</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.70291199999999998</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-0.35145599999999999</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5.0207999999999996E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-0.40166399999999997</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.15062400000000001</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.451872</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-0.60249600000000003</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.15062400000000001</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.451872</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-0.60249600000000003</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-0.52718399999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.2481704</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.12652560000000002</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-0.84751199999999993</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12">
+        <v>9.9410399999999996E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.298236</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-0.39764640000000001</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.68985839999999998</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.13957919999999999</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.50207999999999997</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-1.3315176</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-1.4910000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B58C4C-E636-4EE9-83F3-3C4C890F97DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB325A-6363-4ADD-888F-8AA530C70785}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="moltemplate" sheetId="1" r:id="rId1"/>
+    <sheet name="Gromacs" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="opls_Gromacs" sheetId="5" r:id="rId5"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -92,9 +92,6 @@
     <t>LOPLS</t>
   </si>
   <si>
-    <t>change opls parameters from orignal gromcas ff files</t>
-  </si>
-  <si>
     <t>kJ/mol</t>
   </si>
   <si>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>unit: kJ/mol</t>
+  </si>
+  <si>
+    <t>data are from moltemplate</t>
+  </si>
+  <si>
+    <t>all converted to RB format with kJ/mol unit</t>
+  </si>
+  <si>
+    <t>change opls parameters to those in orignal gromcas ff files</t>
   </si>
 </sst>
 </file>
@@ -272,10 +278,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,13 +290,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE8EB0B-28F3-4528-ADAC-BBBB33A55E0C}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,20 +627,20 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1354,10 +1360,10 @@
       <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1392,13 +1398,18 @@
         <v>13</v>
       </c>
     </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F3:G3"/>
@@ -1410,6 +1421,11 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1421,27 +1437,27 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1888,10 +1904,10 @@
       <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1907,16 +1923,22 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -1927,12 +1949,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1950,10 +1966,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -1980,10 +1996,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -2010,10 +2026,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -2040,10 +2056,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -2070,10 +2086,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -2100,10 +2116,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -2130,10 +2146,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -2160,10 +2176,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -2190,10 +2206,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -2220,10 +2236,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10">
         <v>0.625</v>
       </c>
@@ -2250,10 +2266,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11">
         <v>0.625</v>
       </c>
@@ -2280,10 +2296,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -2310,10 +2326,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13">
         <v>0.41299999999999998</v>
       </c>
@@ -2340,10 +2356,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -2371,6 +2387,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
@@ -2379,12 +2401,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2407,10 +2423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="10">
         <v>3.1066199999999999</v>
       </c>
@@ -2437,10 +2453,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -2467,10 +2483,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1">
         <v>-1.1519999999999999</v>
       </c>
@@ -2497,10 +2513,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -2527,10 +2543,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1">
         <v>21.35</v>
       </c>
@@ -2557,10 +2573,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1">
         <v>31.077000000000002</v>
       </c>
@@ -2587,10 +2603,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10">
         <v>-4.23421</v>
       </c>
@@ -2617,10 +2633,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10">
         <v>-0.15898999999999999</v>
       </c>
@@ -2647,10 +2663,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1">
         <v>2.9169999999999998</v>
       </c>
@@ -2677,10 +2693,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="1">
         <v>0.625</v>
       </c>
@@ -2707,10 +2723,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1">
         <v>0.625</v>
       </c>
@@ -2737,10 +2753,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1">
         <v>-2.1880000000000002</v>
       </c>
@@ -2767,10 +2783,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -2797,10 +2813,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="11">
         <v>2.8744100000000001</v>
       </c>
@@ -2828,12 +2844,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
@@ -2842,6 +2852,12 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2861,18 +2877,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">

--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB325A-6363-4ADD-888F-8AA530C70785}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B02308-EC14-4229-996D-23813974C52B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="7110" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="moltemplate" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -278,10 +285,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,15 +297,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,20 +635,20 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1360,10 +1368,10 @@
       <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1410,6 +1418,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F3:G3"/>
@@ -1421,11 +1434,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1436,28 +1444,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66259D1-0AA3-4CC2-A6DC-36E9C2388D5A}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1904,10 +1912,10 @@
       <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1933,12 +1941,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -1949,6 +1951,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1966,10 +1974,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -1996,10 +2004,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -2026,10 +2034,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -2056,10 +2064,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -2086,10 +2094,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -2116,10 +2124,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -2146,10 +2154,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -2176,10 +2184,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -2206,10 +2214,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -2236,10 +2244,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10">
         <v>0.625</v>
       </c>
@@ -2266,10 +2274,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11">
         <v>0.625</v>
       </c>
@@ -2296,10 +2304,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -2326,10 +2334,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13">
         <v>0.41299999999999998</v>
       </c>
@@ -2356,10 +2364,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -2387,12 +2395,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
@@ -2401,6 +2403,12 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2423,10 +2431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="10">
         <v>3.1066199999999999</v>
       </c>
@@ -2453,10 +2461,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -2483,10 +2491,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1">
         <v>-1.1519999999999999</v>
       </c>
@@ -2513,10 +2521,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -2543,10 +2551,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1">
         <v>21.35</v>
       </c>
@@ -2573,10 +2581,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="1">
         <v>31.077000000000002</v>
       </c>
@@ -2603,10 +2611,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10">
         <v>-4.23421</v>
       </c>
@@ -2633,10 +2641,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10">
         <v>-0.15898999999999999</v>
       </c>
@@ -2663,10 +2671,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1">
         <v>2.9169999999999998</v>
       </c>
@@ -2693,10 +2701,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="1">
         <v>0.625</v>
       </c>
@@ -2723,10 +2731,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1">
         <v>0.625</v>
       </c>
@@ -2753,10 +2761,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1">
         <v>-2.1880000000000002</v>
       </c>
@@ -2783,10 +2791,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -2813,10 +2821,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="11">
         <v>2.8744100000000001</v>
       </c>
@@ -2844,6 +2852,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
@@ -2852,12 +2866,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2867,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E244BB6-4524-4BF9-B818-CEFBCE7011DD}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,18 +2885,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -2927,16 +2935,16 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
         <v>0</v>
       </c>
       <c r="G3" s="12">
@@ -2960,16 +2968,16 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="22">
         <v>-1.1568799999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="22">
         <v>-3.4706299999999999</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
         <v>4.6275000000000004</v>
       </c>
       <c r="G4" s="12">
@@ -2993,16 +3001,16 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="22">
         <v>0.27615000000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="22">
         <v>0.82843999999999995</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
         <v>-1.1045799999999999</v>
       </c>
       <c r="G5" s="12">
@@ -3026,16 +3034,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="22">
         <v>21.43881</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
         <v>-21.43881</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
       <c r="G6" s="12">
@@ -3059,16 +3067,16 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="22">
         <v>31.20637</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="22">
         <v>-9.7675400000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="22">
         <v>-21.43881</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="22">
         <v>0</v>
       </c>
       <c r="G7" s="12">
@@ -3158,16 +3166,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="22">
         <v>2.9287999999999998</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="22">
         <v>-1.4643999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="22">
         <v>0.2092</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="22">
         <v>-1.6736</v>
       </c>
       <c r="G10" s="12">
@@ -3191,16 +3199,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="22">
         <v>0.62760000000000005</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="22">
         <v>1.8828</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
         <v>-2.5104000000000002</v>
       </c>
       <c r="G11" s="12">
@@ -3224,16 +3232,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="22">
         <v>0.62760000000000005</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="22">
         <v>1.8828</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
         <v>-2.5104000000000002</v>
       </c>
       <c r="G12" s="12">
@@ -3257,16 +3265,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="22">
         <v>-2.1966000000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="22">
         <v>5.2007099999999999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="22">
         <v>0.52719000000000005</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="22">
         <v>-3.5312999999999999</v>
       </c>
       <c r="G13" s="12">
@@ -3290,16 +3298,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="22">
         <v>0.41421000000000002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="22">
         <v>1.24265</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
         <v>-1.65686</v>
       </c>
       <c r="G14" s="12">

--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B02308-EC14-4229-996D-23813974C52B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596482B4-1132-4F2F-8953-58F368DB3A81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="4440" yWindow="1320" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="moltemplate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>change opls parameters to those in orignal gromcas ff files</t>
+  </si>
+  <si>
+    <t>dihedral_coeff</t>
   </si>
 </sst>
 </file>
@@ -285,6 +288,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,7 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +627,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,20 +638,20 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -666,10 +669,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -720,10 +723,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -774,10 +777,10 @@
       <c r="E4" s="1">
         <v>4.6079999999999997</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -828,10 +831,10 @@
       <c r="E5" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -882,10 +885,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -936,10 +939,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -990,10 +993,10 @@
       <c r="E8" s="1">
         <v>-2.625</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1044,10 +1047,10 @@
       <c r="E9" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1098,10 +1101,10 @@
       <c r="E10" s="1">
         <v>-1.667</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1152,10 +1155,10 @@
       <c r="E11" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1206,10 +1209,10 @@
       <c r="E12" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1260,10 +1263,10 @@
       <c r="E13" s="1">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1314,10 +1317,10 @@
       <c r="E14" s="1">
         <v>-1.65</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1368,10 +1371,10 @@
       <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1452,20 +1455,20 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1483,10 +1486,10 @@
       <c r="E2" s="10">
         <v>5.8073899999999998</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -1516,10 +1519,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -1549,10 +1552,10 @@
       <c r="E4" s="1">
         <v>4.6275000000000004</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -1582,10 +1585,10 @@
       <c r="E5" s="1">
         <v>-1.1045799999999999</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -1615,10 +1618,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -1648,10 +1651,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -1681,10 +1684,10 @@
       <c r="E8" s="10">
         <v>-4.8952799999999996</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1714,10 +1717,10 @@
       <c r="E9" s="10">
         <v>0.63595999999999997</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1747,10 +1750,10 @@
       <c r="E10" s="1">
         <v>-1.6736</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1780,10 +1783,10 @@
       <c r="E11" s="1">
         <v>-2.5104000000000002</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1813,10 +1816,10 @@
       <c r="E12" s="1">
         <v>-2.5104000000000002</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1846,10 +1849,10 @@
       <c r="E13" s="1">
         <v>-3.5312999999999999</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1879,10 +1882,10 @@
       <c r="E14" s="1">
         <v>-1.65686</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1912,10 +1915,10 @@
       <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1968,16 +1971,16 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -2004,10 +2007,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -2034,10 +2037,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -2064,10 +2067,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -2094,10 +2097,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -2124,10 +2127,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -2154,10 +2157,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -2184,10 +2187,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -2214,10 +2217,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -2244,10 +2247,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10">
         <v>0.625</v>
       </c>
@@ -2274,10 +2277,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11">
         <v>0.625</v>
       </c>
@@ -2304,10 +2307,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -2334,10 +2337,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13">
         <v>0.41299999999999998</v>
       </c>
@@ -2364,10 +2367,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -2431,10 +2434,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="10">
         <v>3.1066199999999999</v>
       </c>
@@ -2461,10 +2464,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -2491,10 +2494,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1">
         <v>-1.1519999999999999</v>
       </c>
@@ -2521,10 +2524,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -2551,10 +2554,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1">
         <v>21.35</v>
       </c>
@@ -2581,10 +2584,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1">
         <v>31.077000000000002</v>
       </c>
@@ -2611,10 +2614,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10">
         <v>-4.23421</v>
       </c>
@@ -2641,10 +2644,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10">
         <v>-0.15898999999999999</v>
       </c>
@@ -2671,10 +2674,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1">
         <v>2.9169999999999998</v>
       </c>
@@ -2701,10 +2704,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1">
         <v>0.625</v>
       </c>
@@ -2731,10 +2734,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1">
         <v>0.625</v>
       </c>
@@ -2761,10 +2764,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1">
         <v>-2.1880000000000002</v>
       </c>
@@ -2791,10 +2794,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -2821,10 +2824,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="11">
         <v>2.8744100000000001</v>
       </c>
@@ -2875,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E244BB6-4524-4BF9-B818-CEFBCE7011DD}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,18 +2888,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -2915,52 +2918,52 @@
         <v>5.8073899999999998</v>
       </c>
       <c r="G2" s="12">
-        <f>B2*0.24</f>
-        <v>0.74558879999999994</v>
+        <f>B2/4.184</f>
+        <v>0.74249999999999994</v>
       </c>
       <c r="H2" s="12">
-        <f t="shared" ref="H2:J2" si="0">C2*0.24</f>
-        <v>-0.90625440000000002</v>
+        <f t="shared" ref="H2:J15" si="0">C2/4.184</f>
+        <v>-0.90249999999999997</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" si="0"/>
-        <v>-1.2331079999999999</v>
+        <v>-1.2279995219885276</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" si="0"/>
-        <v>1.3937735999999998</v>
+        <v>1.3879995219885277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
         <v>0</v>
       </c>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G15" si="1">B3*0.24</f>
+        <f t="shared" ref="G3:G15" si="1">B3/4.184</f>
         <v>0</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H15" si="2">C3*0.24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I15" si="3">D3*0.24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" ref="J3:J15" si="4">E3*0.24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,98 +2971,98 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>-1.1568799999999999</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <v>-3.4706299999999999</v>
       </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
         <v>4.6275000000000004</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>-0.27765119999999999</v>
+        <v>-0.2765009560229445</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.83295119999999989</v>
+        <f t="shared" si="0"/>
+        <v>-0.8295004780114722</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" si="4"/>
-        <v>1.1106</v>
+        <f t="shared" si="0"/>
+        <v>1.1059990439770555</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>0.27615000000000001</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>0.82843999999999995</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
         <v>-1.1045799999999999</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>6.6276000000000002E-2</v>
+        <v>6.6001434034416828E-2</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="2"/>
-        <v>0.19882559999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.19800191204588907</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="4"/>
-        <v>-0.26509919999999998</v>
+        <f t="shared" si="0"/>
+        <v>-0.26400095602294449</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>21.43881</v>
       </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
         <v>-21.43881</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>5.1453144000000002</v>
+        <v>5.1239985659655831</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" si="3"/>
-        <v>-5.1453144000000002</v>
+        <f t="shared" si="0"/>
+        <v>-5.1239985659655831</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3067,32 +3070,32 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>31.20637</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="15">
         <v>-9.7675400000000003</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="15">
         <v>-21.43881</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>7.4895287999999995</v>
+        <v>7.4585014340344165</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="2"/>
-        <v>-2.3442096000000001</v>
+        <f t="shared" si="0"/>
+        <v>-2.3344980879541111</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" si="3"/>
-        <v>-5.1453144000000002</v>
+        <f t="shared" si="0"/>
+        <v>-5.1239985659655831</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3114,19 +3117,19 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>-1.0162104000000001</v>
+        <v>-1.0120004780114722</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="2"/>
-        <v>1.7331816</v>
+        <f t="shared" si="0"/>
+        <v>1.7260014340344167</v>
       </c>
       <c r="I8" s="12">
-        <f t="shared" si="3"/>
-        <v>0.45789599999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.45599904397705543</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.1748671999999998</v>
+        <f t="shared" si="0"/>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3147,184 +3150,184 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>-3.81576E-2</v>
+        <v>-3.7999521988527719E-2</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.1144752</v>
+        <f t="shared" si="0"/>
+        <v>-0.11400095602294455</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="4"/>
-        <v>0.1526304</v>
+        <f t="shared" si="0"/>
+        <v>0.15199808795411088</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>2.9287999999999998</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="15">
         <v>-1.4643999999999999</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="15">
         <v>0.2092</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="15">
         <v>-1.6736</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>0.70291199999999998</v>
+        <v>0.7</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.35145599999999999</v>
+        <f t="shared" si="0"/>
+        <v>-0.35</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="3"/>
-        <v>5.0207999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="4"/>
-        <v>-0.40166399999999997</v>
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>0.62760000000000005</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="15">
         <v>1.8828</v>
       </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
         <v>-2.5104000000000002</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0.15062400000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="2"/>
-        <v>0.451872</v>
+        <f t="shared" si="0"/>
+        <v>0.45</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="4"/>
-        <v>-0.60249600000000003</v>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>0.62760000000000005</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="15">
         <v>1.8828</v>
       </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
         <v>-2.5104000000000002</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>0.15062400000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="2"/>
-        <v>0.451872</v>
+        <f t="shared" si="0"/>
+        <v>0.45</v>
       </c>
       <c r="I12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" si="4"/>
-        <v>-0.60249600000000003</v>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>-2.1966000000000001</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="15">
         <v>5.2007099999999999</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="15">
         <v>0.52719000000000005</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="15">
         <v>-3.5312999999999999</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>-0.52718399999999999</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="2"/>
-        <v>1.2481704</v>
+        <f t="shared" si="0"/>
+        <v>1.2429995219885277</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="3"/>
-        <v>0.12652560000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.12600143403441683</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" si="4"/>
-        <v>-0.84751199999999993</v>
+        <f t="shared" si="0"/>
+        <v>-0.84400095602294445</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>0.41421000000000002</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="15">
         <v>1.24265</v>
       </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
         <v>-1.65686</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>9.9410399999999996E-2</v>
+        <v>9.899856596558318E-2</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="2"/>
-        <v>0.298236</v>
+        <f t="shared" si="0"/>
+        <v>0.29700047801147228</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="4"/>
-        <v>-0.39764640000000001</v>
+        <f t="shared" si="0"/>
+        <v>-0.39599904397705543</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3345,19 +3348,19 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>0.68985839999999998</v>
+        <v>0.68700047801147224</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.13957919999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.13900095602294454</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="3"/>
-        <v>0.50207999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.3315176</v>
+        <f t="shared" si="0"/>
+        <v>-1.3260014340344168</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3375,48 +3378,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F835046E-12F0-4FC2-BE5B-9E7C4ACE63AC}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" s="12">
-        <v>0.74558879999999994</v>
-      </c>
       <c r="C1" s="12">
-        <v>-0.90625440000000002</v>
+        <v>0.74249999999999994</v>
       </c>
       <c r="D1" s="12">
-        <v>-1.2331079999999999</v>
+        <v>-0.90249999999999997</v>
       </c>
       <c r="E1" s="12">
-        <v>1.3937735999999998</v>
-      </c>
-      <c r="F1" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+        <v>-1.2279995219885276</v>
+      </c>
+      <c r="F1" s="12">
+        <v>1.3879995219885277</v>
+      </c>
+      <c r="G1" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
       <c r="C2" s="12">
         <v>0</v>
       </c>
@@ -3426,263 +3433,294 @@
       <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
-        <v>-0.27765119999999999</v>
-      </c>
       <c r="C3" s="12">
-        <v>-0.83295119999999989</v>
+        <v>-0.2765009560229445</v>
       </c>
       <c r="D3" s="12">
-        <v>0</v>
+        <v>-0.8295004780114722</v>
       </c>
       <c r="E3" s="12">
-        <v>1.1106</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1.1059990439770555</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>6.6276000000000002E-2</v>
-      </c>
       <c r="C4" s="12">
-        <v>0.19882559999999999</v>
+        <v>6.6001434034416828E-2</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>0.19800191204588907</v>
       </c>
       <c r="E4" s="12">
-        <v>-0.26509919999999998</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>-0.26400095602294449</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
-        <v>5.1453144000000002</v>
-      </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>5.1239985659655831</v>
       </c>
       <c r="D5" s="12">
-        <v>-5.1453144000000002</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+        <v>-5.1239985659655831</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
-        <v>7.4895287999999995</v>
-      </c>
       <c r="C6" s="12">
-        <v>-2.3442096000000001</v>
+        <v>7.4585014340344165</v>
       </c>
       <c r="D6" s="12">
-        <v>-5.1453144000000002</v>
+        <v>-2.3344980879541111</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+        <v>-5.1239985659655831</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="12">
-        <v>-1.0162104000000001</v>
-      </c>
       <c r="C7" s="12">
-        <v>1.7331816</v>
+        <v>-1.0120004780114722</v>
       </c>
       <c r="D7" s="12">
-        <v>0.45789599999999997</v>
+        <v>1.7260014340344167</v>
       </c>
       <c r="E7" s="12">
-        <v>-1.1748671999999998</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+        <v>0.45599904397705543</v>
+      </c>
+      <c r="F7" s="12">
+        <v>-1.17</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="12">
-        <v>-3.81576E-2</v>
-      </c>
       <c r="C8" s="12">
-        <v>-0.1144752</v>
+        <v>-3.7999521988527719E-2</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>-0.11400095602294455</v>
       </c>
       <c r="E8" s="12">
-        <v>0.1526304</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.15199808795411088</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="12">
-        <v>0.70291199999999998</v>
-      </c>
       <c r="C9" s="12">
-        <v>-0.35145599999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D9" s="12">
-        <v>5.0207999999999996E-2</v>
+        <v>-0.35</v>
       </c>
       <c r="E9" s="12">
-        <v>-0.40166399999999997</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="12">
-        <v>0.15062400000000001</v>
-      </c>
       <c r="C10" s="12">
-        <v>0.451872</v>
+        <v>0.15</v>
       </c>
       <c r="D10" s="12">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="12">
-        <v>-0.60249600000000003</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>-0.6</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="12">
-        <v>0.15062400000000001</v>
-      </c>
       <c r="C11" s="12">
-        <v>0.451872</v>
+        <v>0.15</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E11" s="12">
-        <v>-0.60249600000000003</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
         <v>12</v>
       </c>
-      <c r="B12" s="12">
-        <v>-0.52718399999999999</v>
-      </c>
       <c r="C12" s="12">
-        <v>1.2481704</v>
+        <v>-0.52500000000000002</v>
       </c>
       <c r="D12" s="12">
-        <v>0.12652560000000002</v>
+        <v>1.2429995219885277</v>
       </c>
       <c r="E12" s="12">
-        <v>-0.84751199999999993</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+        <v>0.12600143403441683</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-0.84400095602294445</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
         <v>13</v>
       </c>
-      <c r="B13" s="12">
-        <v>9.9410399999999996E-2</v>
-      </c>
       <c r="C13" s="12">
-        <v>0.298236</v>
+        <v>9.899856596558318E-2</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
+        <v>0.29700047801147228</v>
       </c>
       <c r="E13" s="12">
-        <v>-0.39764640000000001</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>-0.39599904397705543</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" s="12">
-        <v>0.68985839999999998</v>
-      </c>
       <c r="C14" s="12">
-        <v>0.13957919999999999</v>
+        <v>0.68700047801147224</v>
       </c>
       <c r="D14" s="12">
-        <v>0.50207999999999997</v>
+        <v>0.13900095602294454</v>
       </c>
       <c r="E14" s="12">
-        <v>-1.3315176</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-0.23</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-1.4910000000000001</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-1.3260014340344168</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596482B4-1132-4F2F-8953-58F368DB3A81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6DA46D-4B40-4181-BCAA-65FAD478CC37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1320" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="moltemplate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -107,10 +107,25 @@
     <t>all converted to RB format with kJ/mol unit</t>
   </si>
   <si>
-    <t>change opls parameters to those in orignal gromcas ff files</t>
+    <t>dihedral_coeff</t>
   </si>
   <si>
-    <t>dihedral_coeff</t>
+    <t>opls original parameters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">change opls parameters to those in orignal gromcas ff files </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(red)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -627,7 +642,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66259D1-0AA3-4CC2-A6DC-36E9C2388D5A}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1949,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -2876,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E244BB6-4524-4BF9-B818-CEFBCE7011DD}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,6 +3381,11 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="G16" s="12"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3380,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F835046E-12F0-4FC2-BE5B-9E7C4ACE63AC}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3396,7 +3416,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7">
         <v>1</v>
@@ -3419,7 +3439,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
@@ -3442,7 +3462,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>3</v>
@@ -3465,7 +3485,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8">
         <v>4</v>
@@ -3488,7 +3508,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
@@ -3511,7 +3531,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -3534,7 +3554,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8">
         <v>7</v>
@@ -3557,7 +3577,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8">
         <v>8</v>
@@ -3580,7 +3600,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8">
         <v>9</v>
@@ -3603,7 +3623,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8">
         <v>10</v>
@@ -3626,7 +3646,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8">
         <v>11</v>
@@ -3649,7 +3669,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
@@ -3672,7 +3692,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8">
         <v>13</v>
@@ -3695,7 +3715,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="9">
         <v>14</v>

--- a/opls_vs_lopls.xlsx
+++ b/opls_vs_lopls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\lmpcodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6DA46D-4B40-4181-BCAA-65FAD478CC37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C631AC3-3F83-4F59-AA0D-A34434559D69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
+    <workbookView xWindow="225" yWindow="750" windowWidth="14850" windowHeight="14070" firstSheet="1" activeTab="3" xr2:uid="{9F14570E-8309-4732-A298-F4F556955EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="moltemplate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
   <si>
     <t>CT--CT--C_2--O_2</t>
   </si>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -304,10 +312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,15 +327,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +678,7 @@
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
-      <c r="K1" s="20"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -684,10 +696,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -738,10 +750,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -792,10 +804,10 @@
       <c r="E4" s="1">
         <v>4.6079999999999997</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -846,10 +858,10 @@
       <c r="E5" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -900,10 +912,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -954,10 +966,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -1008,10 +1020,10 @@
       <c r="E8" s="1">
         <v>-2.625</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1062,10 +1074,10 @@
       <c r="E9" s="1">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1116,10 +1128,10 @@
       <c r="E10" s="1">
         <v>-1.667</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1170,10 +1182,10 @@
       <c r="E11" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1224,10 +1236,10 @@
       <c r="E12" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1278,10 +1290,10 @@
       <c r="E13" s="1">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1332,10 +1344,10 @@
       <c r="E14" s="1">
         <v>-1.65</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1386,10 +1398,10 @@
       <c r="E15" s="3">
         <v>-1.667</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1436,11 +1448,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F3:G3"/>
@@ -1452,6 +1459,11 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1460,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66259D1-0AA3-4CC2-A6DC-36E9C2388D5A}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1495,7 @@
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
-      <c r="K1" s="20"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -1501,10 +1513,10 @@
       <c r="E2" s="10">
         <v>5.8073899999999998</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20"/>
       <c r="H2" s="1">
         <v>3.0590000000000002</v>
       </c>
@@ -1534,10 +1546,10 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -1567,10 +1579,10 @@
       <c r="E4" s="1">
         <v>4.6275000000000004</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="1">
         <v>-1.885</v>
       </c>
@@ -1600,10 +1612,10 @@
       <c r="E5" s="1">
         <v>-1.1045799999999999</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -1633,10 +1645,10 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="1">
         <v>22.829000000000001</v>
       </c>
@@ -1666,10 +1678,10 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1">
         <v>32.597000000000001</v>
       </c>
@@ -1699,10 +1711,10 @@
       <c r="E8" s="10">
         <v>-4.8952799999999996</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="1">
         <v>-6.0149999999999997</v>
       </c>
@@ -1732,10 +1744,10 @@
       <c r="E9" s="10">
         <v>0.63595999999999997</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="1">
         <v>-0.73099999999999998</v>
       </c>
@@ -1765,10 +1777,10 @@
       <c r="E10" s="1">
         <v>-1.6736</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="1">
         <v>0.51900000000000002</v>
       </c>
@@ -1798,10 +1810,10 @@
       <c r="E11" s="1">
         <v>-2.5104000000000002</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1">
         <v>0.625</v>
       </c>
@@ -1831,10 +1843,10 @@
       <c r="E12" s="1">
         <v>-2.5104000000000002</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="1">
         <v>0.625</v>
       </c>
@@ -1864,10 +1876,10 @@
       <c r="E13" s="1">
         <v>-3.5312999999999999</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1">
         <v>-7.0590000000000002</v>
       </c>
@@ -1897,10 +1909,10 @@
       <c r="E14" s="1">
         <v>-1.65686</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="1">
         <v>0.41299999999999998</v>
       </c>
@@ -1930,10 +1942,10 @@
       <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="3">
         <v>2.6720000000000002</v>
       </c>
@@ -1947,18 +1959,27 @@
         <v>-8.4269999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -1969,12 +1990,6 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1992,10 +2007,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1">
         <v>0</v>
       </c>
@@ -2052,10 +2067,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3">
         <v>-1.1519999999999999</v>
       </c>
@@ -2082,10 +2097,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4">
         <v>0.27500000000000002</v>
       </c>
@@ -2112,10 +2127,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5">
         <v>21.35</v>
       </c>
@@ -2142,10 +2157,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6">
         <v>31.077000000000002</v>
       </c>
@@ -2172,10 +2187,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7">
         <v>-4.9400000000000004</v>
       </c>
@@ -2202,10 +2217,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8">
         <v>-0.20799999999999999</v>
       </c>
@@ -2232,10 +2247,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9">
         <v>2.9169999999999998</v>
       </c>
@@ -2322,10 +2337,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12">
         <v>-2.1880000000000002</v>
       </c>
@@ -2382,10 +2397,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14">
         <v>2.9169999999999998</v>
       </c>
@@ -2408,6 +2423,463 @@
         <v>4.2850000000000001</v>
       </c>
       <c r="J14">
+        <v>-8.4269999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69C754-2CD7-4F1F-82EC-71DD6966FF0C}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="10">
+        <v>3.1066199999999999</v>
+      </c>
+      <c r="D1" s="10">
+        <v>-3.7760600000000002</v>
+      </c>
+      <c r="E1" s="10">
+        <v>-5.13795</v>
+      </c>
+      <c r="F1" s="10">
+        <v>5.8073899999999998</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-3.6320000000000001</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-5.1749999999999998</v>
+      </c>
+      <c r="J1" s="2">
+        <v>5.6130000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="1">
+        <v>-1.1519999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-3.456</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.885</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-4.9480000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.1280000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-21.35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22.829000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-24.007000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="1">
+        <v>31.077000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-9.7270000000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-21.35</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>32.597000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-6.5250000000000004</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-24.007000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="10">
+        <v>-4.23421</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7.22159</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.9078999999999999</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-4.8952799999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-6.0149999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.73</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-5.2050000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="10">
+        <v>-0.15898999999999999</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-0.47698000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.63595999999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.73099999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1.8480000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="1">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.458</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.667</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-1.4910000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="1">
+        <v>-2.1880000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.1790000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-3.5169999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-7.0590000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.2240000000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-5.2210000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.65</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11">
+        <v>2.8744100000000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.58157999999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-5.5479900000000004</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.595</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="J14" s="4">
         <v>-8.4269999999999996</v>
       </c>
     </row>
@@ -2432,491 +2904,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB69C754-2CD7-4F1F-82EC-71DD6966FF0C}">
-  <dimension ref="A1:J14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E244BB6-4524-4BF9-B818-CEFBCE7011DD}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="10">
-        <v>3.1066199999999999</v>
-      </c>
-      <c r="D1" s="10">
-        <v>-3.7760600000000002</v>
-      </c>
-      <c r="E1" s="10">
-        <v>-5.13795</v>
-      </c>
-      <c r="F1" s="10">
-        <v>5.8073899999999998</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3.0590000000000002</v>
-      </c>
-      <c r="H1" s="1">
-        <v>-3.6320000000000001</v>
-      </c>
-      <c r="I1" s="1">
-        <v>-5.1749999999999998</v>
-      </c>
-      <c r="J1" s="2">
-        <v>5.6130000000000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="1">
-        <v>-1.1519999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-3.456</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.6079999999999997</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1.885</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-4.9480000000000004</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.6230000000000002</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4.1280000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="1">
-        <v>21.35</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-21.35</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>22.829000000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-24.007000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="1">
-        <v>31.077000000000002</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-9.7270000000000003</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-21.35</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>32.597000000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-6.5250000000000004</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-24.007000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="10">
-        <v>-4.23421</v>
-      </c>
-      <c r="D7" s="10">
-        <v>7.22159</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1.9078999999999999</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-4.8952799999999996</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-6.0149999999999997</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8.73</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-5.2050000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="10">
-        <v>-0.15898999999999999</v>
-      </c>
-      <c r="D8" s="10">
-        <v>-0.47698000000000002</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.63595999999999997</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-0.73099999999999998</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-1.8480000000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="1">
-        <v>2.9169999999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1.458</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1.667</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-0.23</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="J9" s="2">
-        <v>-1.4910000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.875</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.875</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.875</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.875</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="1">
-        <v>-2.1880000000000002</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.1790000000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-3.5169999999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-7.0590000000000002</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7.5460000000000003</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5.2240000000000002</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-5.2210000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="1">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.238</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1.65</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.238</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>-1.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="11">
-        <v>2.8744100000000001</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.58157999999999999</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2.0920000000000001</v>
-      </c>
-      <c r="F14" s="11">
-        <v>-5.5479900000000004</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.595</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4.2850000000000001</v>
-      </c>
-      <c r="J14" s="4">
-        <v>-8.4269999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E244BB6-4524-4BF9-B818-CEFBCE7011DD}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="16"/>
+      <c r="H1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2932,24 +2949,28 @@
       <c r="E2" s="10">
         <v>5.8073899999999998</v>
       </c>
-      <c r="G2" s="12">
+      <c r="F2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="12">
         <f>B2/4.184</f>
         <v>0.74249999999999994</v>
       </c>
-      <c r="H2" s="12">
-        <f t="shared" ref="H2:J15" si="0">C2/4.184</f>
+      <c r="I2" s="12">
+        <f t="shared" ref="I2:K15" si="0">C2/4.184</f>
         <v>-0.90249999999999997</v>
       </c>
-      <c r="I2" s="12">
+      <c r="J2" s="12">
         <f t="shared" si="0"/>
         <v>-1.2279995219885276</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="12">
         <f t="shared" si="0"/>
         <v>1.3879995219885277</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2965,12 +2986,12 @@
       <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G15" si="1">B3/4.184</f>
-        <v>0</v>
-      </c>
+      <c r="F3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19"/>
       <c r="H3" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H15" si="1">B3/4.184</f>
         <v>0</v>
       </c>
       <c r="I3" s="12">
@@ -2981,8 +3002,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2998,24 +3023,28 @@
       <c r="E4" s="15">
         <v>4.6275000000000004</v>
       </c>
-      <c r="G4" s="12">
+      <c r="F4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="12">
         <f t="shared" si="1"/>
         <v>-0.2765009560229445</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <f t="shared" si="0"/>
         <v>-0.8295004780114722</v>
       </c>
-      <c r="I4" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="0"/>
         <v>1.1059990439770555</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3031,24 +3060,28 @@
       <c r="E5" s="15">
         <v>-1.1045799999999999</v>
       </c>
-      <c r="G5" s="12">
+      <c r="F5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="12">
         <f t="shared" si="1"/>
         <v>6.6001434034416828E-2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <f t="shared" si="0"/>
         <v>0.19800191204588907</v>
       </c>
-      <c r="I5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
         <v>-0.26400095602294449</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3064,24 +3097,28 @@
       <c r="E6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="12">
+      <c r="F6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>5.1239985659655831</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="I6" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
         <v>-5.1239985659655831</v>
       </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3097,24 +3134,28 @@
       <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="12">
+      <c r="F7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>7.4585014340344165</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <f t="shared" si="0"/>
         <v>-2.3344980879541111</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>-5.1239985659655831</v>
       </c>
-      <c r="J7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3130,24 +3171,28 @@
       <c r="E8" s="10">
         <v>-4.8952799999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="F8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>-1.0120004780114722</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <f t="shared" si="0"/>
         <v>1.7260014340344167</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>0.45599904397705543</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>-1.17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3163,24 +3208,28 @@
       <c r="E9" s="10">
         <v>0.63595999999999997</v>
       </c>
-      <c r="G9" s="12">
+      <c r="F9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="12">
         <f t="shared" si="1"/>
         <v>-3.7999521988527719E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <f t="shared" si="0"/>
         <v>-0.11400095602294455</v>
       </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
         <v>0.15199808795411088</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3196,24 +3245,28 @@
       <c r="E10" s="15">
         <v>-1.6736</v>
       </c>
-      <c r="G10" s="12">
+      <c r="F10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>-0.35</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>-0.39999999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3229,24 +3282,28 @@
       <c r="E11" s="15">
         <v>-2.5104000000000002</v>
       </c>
-      <c r="G11" s="12">
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -3262,24 +3319,28 @@
       <c r="E12" s="15">
         <v>-2.5104000000000002</v>
       </c>
-      <c r="G12" s="12">
+      <c r="F12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="I12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3295,24 +3356,28 @@
       <c r="E13" s="15">
         <v>-3.5312999999999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="F13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
         <v>-0.52500000000000002</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>1.2429995219885277</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>0.12600143403441683</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>-0.84400095602294445</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3328,24 +3393,28 @@
       <c r="E14" s="15">
         <v>-1.65686</v>
       </c>
-      <c r="G14" s="12">
+      <c r="F14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="12">
         <f t="shared" si="1"/>
         <v>9.899856596558318E-2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>0.29700047801147228</v>
       </c>
-      <c r="I14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="0"/>
         <v>-0.39599904397705543</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3361,26 +3430,30 @@
       <c r="E15" s="11">
         <v>-5.5479900000000004</v>
       </c>
-      <c r="G15" s="12">
+      <c r="F15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="12">
         <f t="shared" si="1"/>
         <v>0.68700047801147224</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>0.13900095602294454</v>
       </c>
-      <c r="I15" s="12">
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>-1.3260014340344168</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
-      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -3388,9 +3461,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="16">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
